--- a/Course II/R/Diksi/result/таблица_Молоко.xlsx
+++ b/Course II/R/Diksi/result/таблица_Молоко.xlsx
@@ -86,106 +86,106 @@
     <t>Среднее</t>
   </si>
   <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Суббота</t>
+  </si>
+  <si>
+    <t>Воскресенье</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>75</t>
   </si>
   <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>59</t>
   </si>
   <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>Вторник</t>
-  </si>
-  <si>
-    <t>Воскресенье</t>
-  </si>
-  <si>
-    <t>Среда</t>
-  </si>
-  <si>
-    <t>Пятница</t>
-  </si>
-  <si>
-    <t>Понедельник</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Суббота</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>121</t>
+    <t>123</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>80</t>
   </si>
 </sst>
 </file>
@@ -279,31 +279,31 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>9254448.0</v>
+        <v>1.356543E7</v>
       </c>
       <c r="C2" t="n">
-        <v>5926095.0</v>
+        <v>1.0843099E7</v>
       </c>
       <c r="D2" t="n">
-        <v>336.0</v>
+        <v>342.0</v>
       </c>
       <c r="E2" t="n">
-        <v>305.0</v>
+        <v>341.0</v>
       </c>
       <c r="F2" t="n">
-        <v>20.816659994661325</v>
+        <v>22.66736693596157</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
         <v>50</v>
@@ -317,37 +317,37 @@
         <v>13</v>
       </c>
       <c r="B3" t="n">
-        <v>1.5121107E7</v>
+        <v>1.9396185E7</v>
       </c>
       <c r="C3" t="n">
-        <v>1.1352948E7</v>
+        <v>1.6832195E7</v>
       </c>
       <c r="D3" t="n">
-        <v>549.0</v>
+        <v>489.0</v>
       </c>
       <c r="E3" t="n">
-        <v>184.0</v>
+        <v>163.0</v>
       </c>
       <c r="F3" t="n">
-        <v>37.10281724639044</v>
+        <v>34.90667830768477</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
         <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>39</v>
       </c>
       <c r="K3" t="s">
         <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -355,37 +355,37 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>3580590.0</v>
+        <v>5275445.0</v>
       </c>
       <c r="C4" t="n">
-        <v>157040.0</v>
+        <v>2573876.0</v>
       </c>
       <c r="D4" t="n">
-        <v>130.0</v>
+        <v>133.0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.0</v>
+        <v>534.0</v>
       </c>
       <c r="F4" t="n">
-        <v>17.115851744870337</v>
+        <v>19.390719429665317</v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
         <v>52</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -393,37 +393,37 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>1.1788404E7</v>
+        <v>1.380342E7</v>
       </c>
       <c r="C5" t="n">
-        <v>8114614.0</v>
+        <v>1.1503952E7</v>
       </c>
       <c r="D5" t="n">
-        <v>428.0</v>
+        <v>348.0</v>
       </c>
       <c r="E5" t="n">
-        <v>282.0</v>
+        <v>232.0</v>
       </c>
       <c r="F5" t="n">
-        <v>39.48176191369281</v>
+        <v>26.361046297610457</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
         <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -431,37 +431,37 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>5839116.0</v>
+        <v>1.015424E7</v>
       </c>
       <c r="C6" t="n">
-        <v>2763832.0</v>
+        <v>7294808.0</v>
       </c>
       <c r="D6" t="n">
-        <v>212.0</v>
+        <v>256.0</v>
       </c>
       <c r="E6" t="n">
-        <v>376.0</v>
+        <v>456.0</v>
       </c>
       <c r="F6" t="n">
-        <v>15.628118736370519</v>
+        <v>25.941325736214427</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
         <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -469,37 +469,37 @@
         <v>17</v>
       </c>
       <c r="B7" t="n">
-        <v>8593416.0</v>
+        <v>1.420007E7</v>
       </c>
       <c r="C7" t="n">
-        <v>5658018.0</v>
+        <v>1.1608046E7</v>
       </c>
       <c r="D7" t="n">
-        <v>312.0</v>
+        <v>358.0</v>
       </c>
       <c r="E7" t="n">
-        <v>254.0</v>
+        <v>294.0</v>
       </c>
       <c r="F7" t="n">
-        <v>26.120599424318623</v>
+        <v>45.14948715629215</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -507,37 +507,37 @@
         <v>18</v>
       </c>
       <c r="B8" t="n">
-        <v>8620959.0</v>
+        <v>1.364476E7</v>
       </c>
       <c r="C8" t="n">
-        <v>5473271.0</v>
+        <v>1.1062019E7</v>
       </c>
       <c r="D8" t="n">
-        <v>313.0</v>
+        <v>344.0</v>
       </c>
       <c r="E8" t="n">
-        <v>293.0</v>
+        <v>305.0</v>
       </c>
       <c r="F8" t="n">
-        <v>14.963447527383584</v>
+        <v>15.667679805133575</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -545,37 +545,37 @@
         <v>19</v>
       </c>
       <c r="B9" t="n">
-        <v>1.2476979E7</v>
+        <v>1.919786E7</v>
       </c>
       <c r="C9" t="n">
-        <v>8819565.0</v>
+        <v>1.6194849E7</v>
       </c>
       <c r="D9" t="n">
-        <v>453.0</v>
+        <v>484.0</v>
       </c>
       <c r="E9" t="n">
-        <v>255.0</v>
+        <v>275.0</v>
       </c>
       <c r="F9" t="n">
-        <v>46.91735388145942</v>
+        <v>32.038667114538185</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -583,10 +583,10 @@
         <v>20</v>
       </c>
       <c r="B10" t="n">
-        <v>7409067.0</v>
+        <v>1.0669885E7</v>
       </c>
       <c r="C10" t="n">
-        <v>3390553.0</v>
+        <v>7584027.0</v>
       </c>
       <c r="D10" t="n">
         <v>269.0</v>
@@ -595,22 +595,22 @@
         <v>499.0</v>
       </c>
       <c r="F10" t="n">
-        <v>31.069047527816398</v>
+        <v>36.29443089904723</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L10" t="s">
         <v>35</v>
@@ -621,37 +621,37 @@
         <v>21</v>
       </c>
       <c r="B11" t="n">
-        <v>1.0411254E7</v>
+        <v>1.2653135E7</v>
       </c>
       <c r="C11" t="n">
-        <v>6476253.0</v>
+        <v>1.0118253E7</v>
       </c>
       <c r="D11" t="n">
-        <v>378.0</v>
+        <v>319.0</v>
       </c>
       <c r="E11" t="n">
-        <v>379.0</v>
+        <v>317.0</v>
       </c>
       <c r="F11" t="n">
-        <v>37.58102358017053</v>
+        <v>43.01494756809212</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -659,37 +659,37 @@
         <v>22</v>
       </c>
       <c r="B12" t="n">
-        <v>9.309534E7</v>
+        <v>1.3256043E8</v>
       </c>
       <c r="C12" t="n">
-        <v>5.8132189E7</v>
+        <v>1.05615124E8</v>
       </c>
       <c r="D12" t="n">
-        <v>3380.0</v>
+        <v>3342.0</v>
       </c>
       <c r="E12" t="n">
-        <v>3347.0</v>
+        <v>3416.0</v>
       </c>
       <c r="F12" t="n">
-        <v>286.796681577134</v>
+        <v>301.4323492502398</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -697,37 +697,37 @@
         <v>23</v>
       </c>
       <c r="B13" t="n">
-        <v>9309534.0</v>
+        <v>1.3256043E7</v>
       </c>
       <c r="C13" t="n">
-        <v>5813218.9</v>
+        <v>1.05615124E7</v>
       </c>
       <c r="D13" t="n">
-        <v>338.0</v>
+        <v>334.2</v>
       </c>
       <c r="E13" t="n">
-        <v>334.7</v>
+        <v>341.6</v>
       </c>
       <c r="F13" t="n">
-        <v>28.679668157713397</v>
+        <v>30.14323492502398</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Course II/R/Diksi/result/таблица_Молоко.xlsx
+++ b/Course II/R/Diksi/result/таблица_Молоко.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>Магазин</t>
   </si>
@@ -86,106 +86,109 @@
     <t>Среднее</t>
   </si>
   <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>116</t>
+    <t>112</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Суббота</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>Воскресенье</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>54</t>
   </si>
   <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Понедельник</t>
-  </si>
-  <si>
-    <t>Среда</t>
-  </si>
-  <si>
-    <t>Суббота</t>
-  </si>
-  <si>
-    <t>Воскресенье</t>
-  </si>
-  <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>Вторник</t>
-  </si>
-  <si>
-    <t>Пятница</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>80</t>
+    <t>144</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
 </sst>
 </file>
@@ -279,19 +282,19 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>1.356543E7</v>
+        <v>7240864.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0843099E7</v>
+        <v>5745698.0</v>
       </c>
       <c r="D2" t="n">
-        <v>342.0</v>
+        <v>284.0</v>
       </c>
       <c r="E2" t="n">
-        <v>341.0</v>
+        <v>285.0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.66736693596157</v>
+        <v>38.15257589755963</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
@@ -300,10 +303,10 @@
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
         <v>50</v>
@@ -317,19 +320,19 @@
         <v>13</v>
       </c>
       <c r="B3" t="n">
-        <v>1.9396185E7</v>
+        <v>1.2416552E7</v>
       </c>
       <c r="C3" t="n">
-        <v>1.6832195E7</v>
+        <v>1.0749817E7</v>
       </c>
       <c r="D3" t="n">
-        <v>489.0</v>
+        <v>487.0</v>
       </c>
       <c r="E3" t="n">
-        <v>163.0</v>
+        <v>162.0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.90667830768477</v>
+        <v>48.788171868658026</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
@@ -338,16 +341,16 @@
         <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
         <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -355,19 +358,19 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>5275445.0</v>
+        <v>3594936.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2573876.0</v>
+        <v>1697915.0</v>
       </c>
       <c r="D4" t="n">
-        <v>133.0</v>
+        <v>141.0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.0</v>
+        <v>562.0</v>
       </c>
       <c r="F4" t="n">
-        <v>19.390719429665317</v>
+        <v>11.653734328940393</v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
@@ -376,16 +379,16 @@
         <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
         <v>52</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -393,37 +396,37 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>1.380342E7</v>
+        <v>1886704.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.1503952E7</v>
+        <v>-136036.0</v>
       </c>
       <c r="D5" t="n">
-        <v>348.0</v>
+        <v>74.0</v>
       </c>
       <c r="E5" t="n">
-        <v>232.0</v>
+        <v>669.0</v>
       </c>
       <c r="F5" t="n">
-        <v>26.361046297610457</v>
+        <v>11.058287131636359</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
       <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
         <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -431,37 +434,37 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>1.015424E7</v>
+        <v>1.3206928E7</v>
       </c>
       <c r="C6" t="n">
-        <v>7294808.0</v>
+        <v>1.1676602E7</v>
       </c>
       <c r="D6" t="n">
-        <v>256.0</v>
+        <v>518.0</v>
       </c>
       <c r="E6" t="n">
-        <v>456.0</v>
+        <v>84.0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.941325736214427</v>
+        <v>31.622776601683793</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -469,37 +472,37 @@
         <v>17</v>
       </c>
       <c r="B7" t="n">
-        <v>1.420007E7</v>
+        <v>1.3589368E7</v>
       </c>
       <c r="C7" t="n">
-        <v>1.1608046E7</v>
+        <v>1.1469461E7</v>
       </c>
       <c r="D7" t="n">
-        <v>358.0</v>
+        <v>533.0</v>
       </c>
       <c r="E7" t="n">
-        <v>294.0</v>
+        <v>285.0</v>
       </c>
       <c r="F7" t="n">
-        <v>45.14948715629215</v>
+        <v>33.21861210942129</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -507,37 +510,37 @@
         <v>18</v>
       </c>
       <c r="B8" t="n">
-        <v>1.364476E7</v>
+        <v>1.5144624E7</v>
       </c>
       <c r="C8" t="n">
-        <v>1.1062019E7</v>
+        <v>1.356366E7</v>
       </c>
       <c r="D8" t="n">
-        <v>344.0</v>
+        <v>594.0</v>
       </c>
       <c r="E8" t="n">
-        <v>305.0</v>
+        <v>33.0</v>
       </c>
       <c r="F8" t="n">
-        <v>15.667679805133575</v>
+        <v>35.05437952395569</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -545,37 +548,37 @@
         <v>19</v>
       </c>
       <c r="B9" t="n">
-        <v>1.919786E7</v>
+        <v>1.0937784E7</v>
       </c>
       <c r="C9" t="n">
-        <v>1.6194849E7</v>
+        <v>9196891.0</v>
       </c>
       <c r="D9" t="n">
-        <v>484.0</v>
+        <v>429.0</v>
       </c>
       <c r="E9" t="n">
-        <v>275.0</v>
+        <v>242.0</v>
       </c>
       <c r="F9" t="n">
-        <v>32.038667114538185</v>
+        <v>32.3301422087515</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -583,37 +586,37 @@
         <v>20</v>
       </c>
       <c r="B10" t="n">
-        <v>1.0669885E7</v>
+        <v>6883920.0</v>
       </c>
       <c r="C10" t="n">
-        <v>7584027.0</v>
+        <v>5300310.0</v>
       </c>
       <c r="D10" t="n">
-        <v>269.0</v>
+        <v>270.0</v>
       </c>
       <c r="E10" t="n">
-        <v>499.0</v>
+        <v>330.0</v>
       </c>
       <c r="F10" t="n">
-        <v>36.29443089904723</v>
+        <v>29.268055070657628</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
         <v>49</v>
       </c>
-      <c r="J10" t="s">
-        <v>38</v>
-      </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
@@ -621,19 +624,19 @@
         <v>21</v>
       </c>
       <c r="B11" t="n">
-        <v>1.2653135E7</v>
+        <v>1.6011488E7</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0118253E7</v>
+        <v>1.424087E7</v>
       </c>
       <c r="D11" t="n">
-        <v>319.0</v>
+        <v>628.0</v>
       </c>
       <c r="E11" t="n">
-        <v>317.0</v>
+        <v>71.0</v>
       </c>
       <c r="F11" t="n">
-        <v>43.01494756809212</v>
+        <v>37.49539654283925</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -642,13 +645,13 @@
         <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="L11" t="s">
         <v>36</v>
@@ -659,19 +662,19 @@
         <v>22</v>
       </c>
       <c r="B12" t="n">
-        <v>1.3256043E8</v>
+        <v>1.00913168E8</v>
       </c>
       <c r="C12" t="n">
-        <v>1.05615124E8</v>
+        <v>8.3505188E7</v>
       </c>
       <c r="D12" t="n">
-        <v>3342.0</v>
+        <v>3958.0</v>
       </c>
       <c r="E12" t="n">
-        <v>3416.0</v>
+        <v>2723.0</v>
       </c>
       <c r="F12" t="n">
-        <v>301.4323492502398</v>
+        <v>308.6421312841035</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
@@ -697,19 +700,19 @@
         <v>23</v>
       </c>
       <c r="B13" t="n">
-        <v>1.3256043E7</v>
+        <v>1.00913168E7</v>
       </c>
       <c r="C13" t="n">
-        <v>1.05615124E7</v>
+        <v>8350518.8</v>
       </c>
       <c r="D13" t="n">
-        <v>334.2</v>
+        <v>395.8</v>
       </c>
       <c r="E13" t="n">
-        <v>341.6</v>
+        <v>272.3</v>
       </c>
       <c r="F13" t="n">
-        <v>30.14323492502398</v>
+        <v>30.864213128410356</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
